--- a/src/assets/Excel/Demo_Unit_Detailstemplate_New.xlsx
+++ b/src/assets/Excel/Demo_Unit_Detailstemplate_New.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oyespace6-5-2020\18-05-2020\OyeSocietyWeb\src\assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anusha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055ADFED-A46B-4F9D-B38B-7AB35BDCA695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{175161DC-EDBA-4FF4-BC89-69CAF931EF3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Sno</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>UnSold Tenant Occupied Unit</t>
+  </si>
+  <si>
+    <t>VILLA</t>
   </si>
 </sst>
 </file>
@@ -1580,14 +1583,14 @@
   <dimension ref="A1:IV6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="15.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
@@ -1888,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -3238,9 +3241,12 @@
       <c r="IT6" s="19"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{B6B10155-E097-4F97-B54D-F946A9243B59}">
       <formula1>"Sold Owner Occupied Unit,Sold Tenant Occupied Unit,Sold Vacant Unit,UnSold Vacant Unit,UnSold Tenant Occupied Unit"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{1B2E9E41-DB47-4BCC-867F-E5A8CA67F5C6}">
+      <formula1>"FLAT,VILLA,VACCANT PLOT"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/src/assets/Excel/Demo_Unit_Detailstemplate_New.xlsx
+++ b/src/assets/Excel/Demo_Unit_Detailstemplate_New.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Sno</t>
   </si>
@@ -61,16 +61,16 @@
     <t>unit rate</t>
   </si>
   <si>
-    <t>ASHBLCK401</t>
-  </si>
-  <si>
-    <t>ashunit40</t>
+    <t>BLOCK1</t>
+  </si>
+  <si>
+    <t>FLAT1</t>
   </si>
   <si>
     <t>VILLA</t>
   </si>
   <si>
-    <t>UnSold Tenant Occupied Unit</t>
+    <t>Sold Owner Occupied Unit</t>
   </si>
   <si>
     <t>John</t>
@@ -93,7 +93,7 @@
     <t>FlatRateValue</t>
   </si>
   <si>
-    <t>Ashunit41</t>
+    <t>FLAT2</t>
   </si>
   <si>
     <t>FLAT</t>
@@ -139,10 +139,10 @@
     <t>dimension</t>
   </si>
   <si>
-    <t>ashunit42</t>
-  </si>
-  <si>
-    <t>Sold Owner Occupied Unit</t>
+    <t>FLAT3</t>
+  </si>
+  <si>
+    <t>Sold Vacant Unit</t>
   </si>
   <si>
     <t>Johnone</t>
@@ -162,7 +162,22 @@
     </r>
   </si>
   <si>
-    <t>Ashunit43</t>
+    <t>FLAT4</t>
+  </si>
+  <si>
+    <t>UnSold Tenant Occupied Unit</t>
+  </si>
+  <si>
+    <t>DanielOne</t>
+  </si>
+  <si>
+    <t>GregOne</t>
+  </si>
+  <si>
+    <t>FLAT5</t>
+  </si>
+  <si>
+    <t>UnSold Vacant Unit</t>
   </si>
 </sst>
 </file>
@@ -209,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -344,19 +359,10 @@
       <left style="thin">
         <color indexed="11"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
@@ -385,12 +391,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -451,19 +477,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -473,6 +496,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,7 +1600,7 @@
     <col min="6" max="6" width="13.8516" style="1" customWidth="1"/>
     <col min="7" max="11" width="20.8516" style="1" customWidth="1"/>
     <col min="12" max="14" width="16.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.2109" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1719" style="1" customWidth="1"/>
     <col min="16" max="254" width="16.3516" style="1" customWidth="1"/>
     <col min="255" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -2182,7 +2208,7 @@
         <v>31</v>
       </c>
       <c r="L3" s="8">
-        <v>6666666666</v>
+        <v>8197399604</v>
       </c>
       <c r="M3" t="s" s="2">
         <v>32</v>
@@ -2729,7 +2755,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>36</v>
@@ -2743,17 +2769,25 @@
       <c r="I5" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="J5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="L5" s="8">
+        <v>8197399604</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>32</v>
+      </c>
       <c r="N5" s="9">
         <v>1024</v>
       </c>
       <c r="O5" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="11">
         <v>10</v>
       </c>
       <c r="Q5" s="12"/>
@@ -2996,275 +3030,291 @@
       <c r="IT5" s="13"/>
     </row>
     <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="21"/>
-      <c r="BX6" s="21"/>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21"/>
-      <c r="CE6" s="21"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="21"/>
-      <c r="CI6" s="21"/>
-      <c r="CJ6" s="21"/>
-      <c r="CK6" s="21"/>
-      <c r="CL6" s="21"/>
-      <c r="CM6" s="21"/>
-      <c r="CN6" s="21"/>
-      <c r="CO6" s="21"/>
-      <c r="CP6" s="21"/>
-      <c r="CQ6" s="21"/>
-      <c r="CR6" s="21"/>
-      <c r="CS6" s="21"/>
-      <c r="CT6" s="21"/>
-      <c r="CU6" s="21"/>
-      <c r="CV6" s="21"/>
-      <c r="CW6" s="21"/>
-      <c r="CX6" s="21"/>
-      <c r="CY6" s="21"/>
-      <c r="CZ6" s="21"/>
-      <c r="DA6" s="21"/>
-      <c r="DB6" s="21"/>
-      <c r="DC6" s="21"/>
-      <c r="DD6" s="21"/>
-      <c r="DE6" s="21"/>
-      <c r="DF6" s="21"/>
-      <c r="DG6" s="21"/>
-      <c r="DH6" s="21"/>
-      <c r="DI6" s="21"/>
-      <c r="DJ6" s="21"/>
-      <c r="DK6" s="21"/>
-      <c r="DL6" s="21"/>
-      <c r="DM6" s="21"/>
-      <c r="DN6" s="21"/>
-      <c r="DO6" s="21"/>
-      <c r="DP6" s="21"/>
-      <c r="DQ6" s="21"/>
-      <c r="DR6" s="21"/>
-      <c r="DS6" s="21"/>
-      <c r="DT6" s="21"/>
-      <c r="DU6" s="21"/>
-      <c r="DV6" s="21"/>
-      <c r="DW6" s="21"/>
-      <c r="DX6" s="21"/>
-      <c r="DY6" s="21"/>
-      <c r="DZ6" s="21"/>
-      <c r="EA6" s="21"/>
-      <c r="EB6" s="21"/>
-      <c r="EC6" s="21"/>
-      <c r="ED6" s="21"/>
-      <c r="EE6" s="21"/>
-      <c r="EF6" s="21"/>
-      <c r="EG6" s="21"/>
-      <c r="EH6" s="21"/>
-      <c r="EI6" s="21"/>
-      <c r="EJ6" s="21"/>
-      <c r="EK6" s="21"/>
-      <c r="EL6" s="21"/>
-      <c r="EM6" s="21"/>
-      <c r="EN6" s="21"/>
-      <c r="EO6" s="21"/>
-      <c r="EP6" s="21"/>
-      <c r="EQ6" s="21"/>
-      <c r="ER6" s="21"/>
-      <c r="ES6" s="21"/>
-      <c r="ET6" s="21"/>
-      <c r="EU6" s="21"/>
-      <c r="EV6" s="21"/>
-      <c r="EW6" s="21"/>
-      <c r="EX6" s="21"/>
-      <c r="EY6" s="21"/>
-      <c r="EZ6" s="21"/>
-      <c r="FA6" s="21"/>
-      <c r="FB6" s="21"/>
-      <c r="FC6" s="21"/>
-      <c r="FD6" s="21"/>
-      <c r="FE6" s="21"/>
-      <c r="FF6" s="21"/>
-      <c r="FG6" s="21"/>
-      <c r="FH6" s="21"/>
-      <c r="FI6" s="21"/>
-      <c r="FJ6" s="21"/>
-      <c r="FK6" s="21"/>
-      <c r="FL6" s="21"/>
-      <c r="FM6" s="21"/>
-      <c r="FN6" s="21"/>
-      <c r="FO6" s="21"/>
-      <c r="FP6" s="21"/>
-      <c r="FQ6" s="21"/>
-      <c r="FR6" s="21"/>
-      <c r="FS6" s="21"/>
-      <c r="FT6" s="21"/>
-      <c r="FU6" s="21"/>
-      <c r="FV6" s="21"/>
-      <c r="FW6" s="21"/>
-      <c r="FX6" s="21"/>
-      <c r="FY6" s="21"/>
-      <c r="FZ6" s="21"/>
-      <c r="GA6" s="21"/>
-      <c r="GB6" s="21"/>
-      <c r="GC6" s="21"/>
-      <c r="GD6" s="21"/>
-      <c r="GE6" s="21"/>
-      <c r="GF6" s="21"/>
-      <c r="GG6" s="21"/>
-      <c r="GH6" s="21"/>
-      <c r="GI6" s="21"/>
-      <c r="GJ6" s="21"/>
-      <c r="GK6" s="21"/>
-      <c r="GL6" s="21"/>
-      <c r="GM6" s="21"/>
-      <c r="GN6" s="21"/>
-      <c r="GO6" s="21"/>
-      <c r="GP6" s="21"/>
-      <c r="GQ6" s="21"/>
-      <c r="GR6" s="21"/>
-      <c r="GS6" s="21"/>
-      <c r="GT6" s="21"/>
-      <c r="GU6" s="21"/>
-      <c r="GV6" s="21"/>
-      <c r="GW6" s="21"/>
-      <c r="GX6" s="21"/>
-      <c r="GY6" s="21"/>
-      <c r="GZ6" s="21"/>
-      <c r="HA6" s="21"/>
-      <c r="HB6" s="21"/>
-      <c r="HC6" s="21"/>
-      <c r="HD6" s="21"/>
-      <c r="HE6" s="21"/>
-      <c r="HF6" s="21"/>
-      <c r="HG6" s="21"/>
-      <c r="HH6" s="21"/>
-      <c r="HI6" s="21"/>
-      <c r="HJ6" s="21"/>
-      <c r="HK6" s="21"/>
-      <c r="HL6" s="21"/>
-      <c r="HM6" s="21"/>
-      <c r="HN6" s="21"/>
-      <c r="HO6" s="21"/>
-      <c r="HP6" s="21"/>
-      <c r="HQ6" s="21"/>
-      <c r="HR6" s="21"/>
-      <c r="HS6" s="21"/>
-      <c r="HT6" s="21"/>
-      <c r="HU6" s="21"/>
-      <c r="HV6" s="21"/>
-      <c r="HW6" s="21"/>
-      <c r="HX6" s="21"/>
-      <c r="HY6" s="21"/>
-      <c r="HZ6" s="21"/>
-      <c r="IA6" s="21"/>
-      <c r="IB6" s="21"/>
-      <c r="IC6" s="21"/>
-      <c r="ID6" s="21"/>
-      <c r="IE6" s="21"/>
-      <c r="IF6" s="21"/>
-      <c r="IG6" s="21"/>
-      <c r="IH6" s="21"/>
-      <c r="II6" s="21"/>
-      <c r="IJ6" s="21"/>
-      <c r="IK6" s="21"/>
-      <c r="IL6" s="21"/>
-      <c r="IM6" s="21"/>
-      <c r="IN6" s="21"/>
-      <c r="IO6" s="21"/>
-      <c r="IP6" s="21"/>
-      <c r="IQ6" s="21"/>
-      <c r="IR6" s="21"/>
-      <c r="IS6" s="21"/>
-      <c r="IT6" s="22"/>
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="9">
+        <v>1024</v>
+      </c>
+      <c r="O6" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="P6" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="19"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="19"/>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="19"/>
+      <c r="BN6" s="19"/>
+      <c r="BO6" s="19"/>
+      <c r="BP6" s="19"/>
+      <c r="BQ6" s="19"/>
+      <c r="BR6" s="19"/>
+      <c r="BS6" s="19"/>
+      <c r="BT6" s="19"/>
+      <c r="BU6" s="19"/>
+      <c r="BV6" s="19"/>
+      <c r="BW6" s="19"/>
+      <c r="BX6" s="19"/>
+      <c r="BY6" s="19"/>
+      <c r="BZ6" s="19"/>
+      <c r="CA6" s="19"/>
+      <c r="CB6" s="19"/>
+      <c r="CC6" s="19"/>
+      <c r="CD6" s="19"/>
+      <c r="CE6" s="19"/>
+      <c r="CF6" s="19"/>
+      <c r="CG6" s="19"/>
+      <c r="CH6" s="19"/>
+      <c r="CI6" s="19"/>
+      <c r="CJ6" s="19"/>
+      <c r="CK6" s="19"/>
+      <c r="CL6" s="19"/>
+      <c r="CM6" s="19"/>
+      <c r="CN6" s="19"/>
+      <c r="CO6" s="19"/>
+      <c r="CP6" s="19"/>
+      <c r="CQ6" s="19"/>
+      <c r="CR6" s="19"/>
+      <c r="CS6" s="19"/>
+      <c r="CT6" s="19"/>
+      <c r="CU6" s="19"/>
+      <c r="CV6" s="19"/>
+      <c r="CW6" s="19"/>
+      <c r="CX6" s="19"/>
+      <c r="CY6" s="19"/>
+      <c r="CZ6" s="19"/>
+      <c r="DA6" s="19"/>
+      <c r="DB6" s="19"/>
+      <c r="DC6" s="19"/>
+      <c r="DD6" s="19"/>
+      <c r="DE6" s="19"/>
+      <c r="DF6" s="19"/>
+      <c r="DG6" s="19"/>
+      <c r="DH6" s="19"/>
+      <c r="DI6" s="19"/>
+      <c r="DJ6" s="19"/>
+      <c r="DK6" s="19"/>
+      <c r="DL6" s="19"/>
+      <c r="DM6" s="19"/>
+      <c r="DN6" s="19"/>
+      <c r="DO6" s="19"/>
+      <c r="DP6" s="19"/>
+      <c r="DQ6" s="19"/>
+      <c r="DR6" s="19"/>
+      <c r="DS6" s="19"/>
+      <c r="DT6" s="19"/>
+      <c r="DU6" s="19"/>
+      <c r="DV6" s="19"/>
+      <c r="DW6" s="19"/>
+      <c r="DX6" s="19"/>
+      <c r="DY6" s="19"/>
+      <c r="DZ6" s="19"/>
+      <c r="EA6" s="19"/>
+      <c r="EB6" s="19"/>
+      <c r="EC6" s="19"/>
+      <c r="ED6" s="19"/>
+      <c r="EE6" s="19"/>
+      <c r="EF6" s="19"/>
+      <c r="EG6" s="19"/>
+      <c r="EH6" s="19"/>
+      <c r="EI6" s="19"/>
+      <c r="EJ6" s="19"/>
+      <c r="EK6" s="19"/>
+      <c r="EL6" s="19"/>
+      <c r="EM6" s="19"/>
+      <c r="EN6" s="19"/>
+      <c r="EO6" s="19"/>
+      <c r="EP6" s="19"/>
+      <c r="EQ6" s="19"/>
+      <c r="ER6" s="19"/>
+      <c r="ES6" s="19"/>
+      <c r="ET6" s="19"/>
+      <c r="EU6" s="19"/>
+      <c r="EV6" s="19"/>
+      <c r="EW6" s="19"/>
+      <c r="EX6" s="19"/>
+      <c r="EY6" s="19"/>
+      <c r="EZ6" s="19"/>
+      <c r="FA6" s="19"/>
+      <c r="FB6" s="19"/>
+      <c r="FC6" s="19"/>
+      <c r="FD6" s="19"/>
+      <c r="FE6" s="19"/>
+      <c r="FF6" s="19"/>
+      <c r="FG6" s="19"/>
+      <c r="FH6" s="19"/>
+      <c r="FI6" s="19"/>
+      <c r="FJ6" s="19"/>
+      <c r="FK6" s="19"/>
+      <c r="FL6" s="19"/>
+      <c r="FM6" s="19"/>
+      <c r="FN6" s="19"/>
+      <c r="FO6" s="19"/>
+      <c r="FP6" s="19"/>
+      <c r="FQ6" s="19"/>
+      <c r="FR6" s="19"/>
+      <c r="FS6" s="19"/>
+      <c r="FT6" s="19"/>
+      <c r="FU6" s="19"/>
+      <c r="FV6" s="19"/>
+      <c r="FW6" s="19"/>
+      <c r="FX6" s="19"/>
+      <c r="FY6" s="19"/>
+      <c r="FZ6" s="19"/>
+      <c r="GA6" s="19"/>
+      <c r="GB6" s="19"/>
+      <c r="GC6" s="19"/>
+      <c r="GD6" s="19"/>
+      <c r="GE6" s="19"/>
+      <c r="GF6" s="19"/>
+      <c r="GG6" s="19"/>
+      <c r="GH6" s="19"/>
+      <c r="GI6" s="19"/>
+      <c r="GJ6" s="19"/>
+      <c r="GK6" s="19"/>
+      <c r="GL6" s="19"/>
+      <c r="GM6" s="19"/>
+      <c r="GN6" s="19"/>
+      <c r="GO6" s="19"/>
+      <c r="GP6" s="19"/>
+      <c r="GQ6" s="19"/>
+      <c r="GR6" s="19"/>
+      <c r="GS6" s="19"/>
+      <c r="GT6" s="19"/>
+      <c r="GU6" s="19"/>
+      <c r="GV6" s="19"/>
+      <c r="GW6" s="19"/>
+      <c r="GX6" s="19"/>
+      <c r="GY6" s="19"/>
+      <c r="GZ6" s="19"/>
+      <c r="HA6" s="19"/>
+      <c r="HB6" s="19"/>
+      <c r="HC6" s="19"/>
+      <c r="HD6" s="19"/>
+      <c r="HE6" s="19"/>
+      <c r="HF6" s="19"/>
+      <c r="HG6" s="19"/>
+      <c r="HH6" s="19"/>
+      <c r="HI6" s="19"/>
+      <c r="HJ6" s="19"/>
+      <c r="HK6" s="19"/>
+      <c r="HL6" s="19"/>
+      <c r="HM6" s="19"/>
+      <c r="HN6" s="19"/>
+      <c r="HO6" s="19"/>
+      <c r="HP6" s="19"/>
+      <c r="HQ6" s="19"/>
+      <c r="HR6" s="19"/>
+      <c r="HS6" s="19"/>
+      <c r="HT6" s="19"/>
+      <c r="HU6" s="19"/>
+      <c r="HV6" s="19"/>
+      <c r="HW6" s="19"/>
+      <c r="HX6" s="19"/>
+      <c r="HY6" s="19"/>
+      <c r="HZ6" s="19"/>
+      <c r="IA6" s="19"/>
+      <c r="IB6" s="19"/>
+      <c r="IC6" s="19"/>
+      <c r="ID6" s="19"/>
+      <c r="IE6" s="19"/>
+      <c r="IF6" s="19"/>
+      <c r="IG6" s="19"/>
+      <c r="IH6" s="19"/>
+      <c r="II6" s="19"/>
+      <c r="IJ6" s="19"/>
+      <c r="IK6" s="19"/>
+      <c r="IL6" s="19"/>
+      <c r="IM6" s="19"/>
+      <c r="IN6" s="19"/>
+      <c r="IO6" s="19"/>
+      <c r="IP6" s="19"/>
+      <c r="IQ6" s="19"/>
+      <c r="IR6" s="19"/>
+      <c r="IS6" s="19"/>
+      <c r="IT6" s="20"/>
     </row>
     <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -3508,7 +3558,7 @@
       <c r="IT7" s="6"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3764,7 +3814,7 @@
       <c r="IT8" s="13"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4020,260 +4070,260 @@
       <c r="IT9" s="13"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="21"/>
-      <c r="BG10" s="21"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="21"/>
-      <c r="BM10" s="21"/>
-      <c r="BN10" s="21"/>
-      <c r="BO10" s="21"/>
-      <c r="BP10" s="21"/>
-      <c r="BQ10" s="21"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
-      <c r="BT10" s="21"/>
-      <c r="BU10" s="21"/>
-      <c r="BV10" s="21"/>
-      <c r="BW10" s="21"/>
-      <c r="BX10" s="21"/>
-      <c r="BY10" s="21"/>
-      <c r="BZ10" s="21"/>
-      <c r="CA10" s="21"/>
-      <c r="CB10" s="21"/>
-      <c r="CC10" s="21"/>
-      <c r="CD10" s="21"/>
-      <c r="CE10" s="21"/>
-      <c r="CF10" s="21"/>
-      <c r="CG10" s="21"/>
-      <c r="CH10" s="21"/>
-      <c r="CI10" s="21"/>
-      <c r="CJ10" s="21"/>
-      <c r="CK10" s="21"/>
-      <c r="CL10" s="21"/>
-      <c r="CM10" s="21"/>
-      <c r="CN10" s="21"/>
-      <c r="CO10" s="21"/>
-      <c r="CP10" s="21"/>
-      <c r="CQ10" s="21"/>
-      <c r="CR10" s="21"/>
-      <c r="CS10" s="21"/>
-      <c r="CT10" s="21"/>
-      <c r="CU10" s="21"/>
-      <c r="CV10" s="21"/>
-      <c r="CW10" s="21"/>
-      <c r="CX10" s="21"/>
-      <c r="CY10" s="21"/>
-      <c r="CZ10" s="21"/>
-      <c r="DA10" s="21"/>
-      <c r="DB10" s="21"/>
-      <c r="DC10" s="21"/>
-      <c r="DD10" s="21"/>
-      <c r="DE10" s="21"/>
-      <c r="DF10" s="21"/>
-      <c r="DG10" s="21"/>
-      <c r="DH10" s="21"/>
-      <c r="DI10" s="21"/>
-      <c r="DJ10" s="21"/>
-      <c r="DK10" s="21"/>
-      <c r="DL10" s="21"/>
-      <c r="DM10" s="21"/>
-      <c r="DN10" s="21"/>
-      <c r="DO10" s="21"/>
-      <c r="DP10" s="21"/>
-      <c r="DQ10" s="21"/>
-      <c r="DR10" s="21"/>
-      <c r="DS10" s="21"/>
-      <c r="DT10" s="21"/>
-      <c r="DU10" s="21"/>
-      <c r="DV10" s="21"/>
-      <c r="DW10" s="21"/>
-      <c r="DX10" s="21"/>
-      <c r="DY10" s="21"/>
-      <c r="DZ10" s="21"/>
-      <c r="EA10" s="21"/>
-      <c r="EB10" s="21"/>
-      <c r="EC10" s="21"/>
-      <c r="ED10" s="21"/>
-      <c r="EE10" s="21"/>
-      <c r="EF10" s="21"/>
-      <c r="EG10" s="21"/>
-      <c r="EH10" s="21"/>
-      <c r="EI10" s="21"/>
-      <c r="EJ10" s="21"/>
-      <c r="EK10" s="21"/>
-      <c r="EL10" s="21"/>
-      <c r="EM10" s="21"/>
-      <c r="EN10" s="21"/>
-      <c r="EO10" s="21"/>
-      <c r="EP10" s="21"/>
-      <c r="EQ10" s="21"/>
-      <c r="ER10" s="21"/>
-      <c r="ES10" s="21"/>
-      <c r="ET10" s="21"/>
-      <c r="EU10" s="21"/>
-      <c r="EV10" s="21"/>
-      <c r="EW10" s="21"/>
-      <c r="EX10" s="21"/>
-      <c r="EY10" s="21"/>
-      <c r="EZ10" s="21"/>
-      <c r="FA10" s="21"/>
-      <c r="FB10" s="21"/>
-      <c r="FC10" s="21"/>
-      <c r="FD10" s="21"/>
-      <c r="FE10" s="21"/>
-      <c r="FF10" s="21"/>
-      <c r="FG10" s="21"/>
-      <c r="FH10" s="21"/>
-      <c r="FI10" s="21"/>
-      <c r="FJ10" s="21"/>
-      <c r="FK10" s="21"/>
-      <c r="FL10" s="21"/>
-      <c r="FM10" s="21"/>
-      <c r="FN10" s="21"/>
-      <c r="FO10" s="21"/>
-      <c r="FP10" s="21"/>
-      <c r="FQ10" s="21"/>
-      <c r="FR10" s="21"/>
-      <c r="FS10" s="21"/>
-      <c r="FT10" s="21"/>
-      <c r="FU10" s="21"/>
-      <c r="FV10" s="21"/>
-      <c r="FW10" s="21"/>
-      <c r="FX10" s="21"/>
-      <c r="FY10" s="21"/>
-      <c r="FZ10" s="21"/>
-      <c r="GA10" s="21"/>
-      <c r="GB10" s="21"/>
-      <c r="GC10" s="21"/>
-      <c r="GD10" s="21"/>
-      <c r="GE10" s="21"/>
-      <c r="GF10" s="21"/>
-      <c r="GG10" s="21"/>
-      <c r="GH10" s="21"/>
-      <c r="GI10" s="21"/>
-      <c r="GJ10" s="21"/>
-      <c r="GK10" s="21"/>
-      <c r="GL10" s="21"/>
-      <c r="GM10" s="21"/>
-      <c r="GN10" s="21"/>
-      <c r="GO10" s="21"/>
-      <c r="GP10" s="21"/>
-      <c r="GQ10" s="21"/>
-      <c r="GR10" s="21"/>
-      <c r="GS10" s="21"/>
-      <c r="GT10" s="21"/>
-      <c r="GU10" s="21"/>
-      <c r="GV10" s="21"/>
-      <c r="GW10" s="21"/>
-      <c r="GX10" s="21"/>
-      <c r="GY10" s="21"/>
-      <c r="GZ10" s="21"/>
-      <c r="HA10" s="21"/>
-      <c r="HB10" s="21"/>
-      <c r="HC10" s="21"/>
-      <c r="HD10" s="21"/>
-      <c r="HE10" s="21"/>
-      <c r="HF10" s="21"/>
-      <c r="HG10" s="21"/>
-      <c r="HH10" s="21"/>
-      <c r="HI10" s="21"/>
-      <c r="HJ10" s="21"/>
-      <c r="HK10" s="21"/>
-      <c r="HL10" s="21"/>
-      <c r="HM10" s="21"/>
-      <c r="HN10" s="21"/>
-      <c r="HO10" s="21"/>
-      <c r="HP10" s="21"/>
-      <c r="HQ10" s="21"/>
-      <c r="HR10" s="21"/>
-      <c r="HS10" s="21"/>
-      <c r="HT10" s="21"/>
-      <c r="HU10" s="21"/>
-      <c r="HV10" s="21"/>
-      <c r="HW10" s="21"/>
-      <c r="HX10" s="21"/>
-      <c r="HY10" s="21"/>
-      <c r="HZ10" s="21"/>
-      <c r="IA10" s="21"/>
-      <c r="IB10" s="21"/>
-      <c r="IC10" s="21"/>
-      <c r="ID10" s="21"/>
-      <c r="IE10" s="21"/>
-      <c r="IF10" s="21"/>
-      <c r="IG10" s="21"/>
-      <c r="IH10" s="21"/>
-      <c r="II10" s="21"/>
-      <c r="IJ10" s="21"/>
-      <c r="IK10" s="21"/>
-      <c r="IL10" s="21"/>
-      <c r="IM10" s="21"/>
-      <c r="IN10" s="21"/>
-      <c r="IO10" s="21"/>
-      <c r="IP10" s="21"/>
-      <c r="IQ10" s="21"/>
-      <c r="IR10" s="21"/>
-      <c r="IS10" s="21"/>
-      <c r="IT10" s="22"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="19"/>
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="19"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="19"/>
+      <c r="BQ10" s="19"/>
+      <c r="BR10" s="19"/>
+      <c r="BS10" s="19"/>
+      <c r="BT10" s="19"/>
+      <c r="BU10" s="19"/>
+      <c r="BV10" s="19"/>
+      <c r="BW10" s="19"/>
+      <c r="BX10" s="19"/>
+      <c r="BY10" s="19"/>
+      <c r="BZ10" s="19"/>
+      <c r="CA10" s="19"/>
+      <c r="CB10" s="19"/>
+      <c r="CC10" s="19"/>
+      <c r="CD10" s="19"/>
+      <c r="CE10" s="19"/>
+      <c r="CF10" s="19"/>
+      <c r="CG10" s="19"/>
+      <c r="CH10" s="19"/>
+      <c r="CI10" s="19"/>
+      <c r="CJ10" s="19"/>
+      <c r="CK10" s="19"/>
+      <c r="CL10" s="19"/>
+      <c r="CM10" s="19"/>
+      <c r="CN10" s="19"/>
+      <c r="CO10" s="19"/>
+      <c r="CP10" s="19"/>
+      <c r="CQ10" s="19"/>
+      <c r="CR10" s="19"/>
+      <c r="CS10" s="19"/>
+      <c r="CT10" s="19"/>
+      <c r="CU10" s="19"/>
+      <c r="CV10" s="19"/>
+      <c r="CW10" s="19"/>
+      <c r="CX10" s="19"/>
+      <c r="CY10" s="19"/>
+      <c r="CZ10" s="19"/>
+      <c r="DA10" s="19"/>
+      <c r="DB10" s="19"/>
+      <c r="DC10" s="19"/>
+      <c r="DD10" s="19"/>
+      <c r="DE10" s="19"/>
+      <c r="DF10" s="19"/>
+      <c r="DG10" s="19"/>
+      <c r="DH10" s="19"/>
+      <c r="DI10" s="19"/>
+      <c r="DJ10" s="19"/>
+      <c r="DK10" s="19"/>
+      <c r="DL10" s="19"/>
+      <c r="DM10" s="19"/>
+      <c r="DN10" s="19"/>
+      <c r="DO10" s="19"/>
+      <c r="DP10" s="19"/>
+      <c r="DQ10" s="19"/>
+      <c r="DR10" s="19"/>
+      <c r="DS10" s="19"/>
+      <c r="DT10" s="19"/>
+      <c r="DU10" s="19"/>
+      <c r="DV10" s="19"/>
+      <c r="DW10" s="19"/>
+      <c r="DX10" s="19"/>
+      <c r="DY10" s="19"/>
+      <c r="DZ10" s="19"/>
+      <c r="EA10" s="19"/>
+      <c r="EB10" s="19"/>
+      <c r="EC10" s="19"/>
+      <c r="ED10" s="19"/>
+      <c r="EE10" s="19"/>
+      <c r="EF10" s="19"/>
+      <c r="EG10" s="19"/>
+      <c r="EH10" s="19"/>
+      <c r="EI10" s="19"/>
+      <c r="EJ10" s="19"/>
+      <c r="EK10" s="19"/>
+      <c r="EL10" s="19"/>
+      <c r="EM10" s="19"/>
+      <c r="EN10" s="19"/>
+      <c r="EO10" s="19"/>
+      <c r="EP10" s="19"/>
+      <c r="EQ10" s="19"/>
+      <c r="ER10" s="19"/>
+      <c r="ES10" s="19"/>
+      <c r="ET10" s="19"/>
+      <c r="EU10" s="19"/>
+      <c r="EV10" s="19"/>
+      <c r="EW10" s="19"/>
+      <c r="EX10" s="19"/>
+      <c r="EY10" s="19"/>
+      <c r="EZ10" s="19"/>
+      <c r="FA10" s="19"/>
+      <c r="FB10" s="19"/>
+      <c r="FC10" s="19"/>
+      <c r="FD10" s="19"/>
+      <c r="FE10" s="19"/>
+      <c r="FF10" s="19"/>
+      <c r="FG10" s="19"/>
+      <c r="FH10" s="19"/>
+      <c r="FI10" s="19"/>
+      <c r="FJ10" s="19"/>
+      <c r="FK10" s="19"/>
+      <c r="FL10" s="19"/>
+      <c r="FM10" s="19"/>
+      <c r="FN10" s="19"/>
+      <c r="FO10" s="19"/>
+      <c r="FP10" s="19"/>
+      <c r="FQ10" s="19"/>
+      <c r="FR10" s="19"/>
+      <c r="FS10" s="19"/>
+      <c r="FT10" s="19"/>
+      <c r="FU10" s="19"/>
+      <c r="FV10" s="19"/>
+      <c r="FW10" s="19"/>
+      <c r="FX10" s="19"/>
+      <c r="FY10" s="19"/>
+      <c r="FZ10" s="19"/>
+      <c r="GA10" s="19"/>
+      <c r="GB10" s="19"/>
+      <c r="GC10" s="19"/>
+      <c r="GD10" s="19"/>
+      <c r="GE10" s="19"/>
+      <c r="GF10" s="19"/>
+      <c r="GG10" s="19"/>
+      <c r="GH10" s="19"/>
+      <c r="GI10" s="19"/>
+      <c r="GJ10" s="19"/>
+      <c r="GK10" s="19"/>
+      <c r="GL10" s="19"/>
+      <c r="GM10" s="19"/>
+      <c r="GN10" s="19"/>
+      <c r="GO10" s="19"/>
+      <c r="GP10" s="19"/>
+      <c r="GQ10" s="19"/>
+      <c r="GR10" s="19"/>
+      <c r="GS10" s="19"/>
+      <c r="GT10" s="19"/>
+      <c r="GU10" s="19"/>
+      <c r="GV10" s="19"/>
+      <c r="GW10" s="19"/>
+      <c r="GX10" s="19"/>
+      <c r="GY10" s="19"/>
+      <c r="GZ10" s="19"/>
+      <c r="HA10" s="19"/>
+      <c r="HB10" s="19"/>
+      <c r="HC10" s="19"/>
+      <c r="HD10" s="19"/>
+      <c r="HE10" s="19"/>
+      <c r="HF10" s="19"/>
+      <c r="HG10" s="19"/>
+      <c r="HH10" s="19"/>
+      <c r="HI10" s="19"/>
+      <c r="HJ10" s="19"/>
+      <c r="HK10" s="19"/>
+      <c r="HL10" s="19"/>
+      <c r="HM10" s="19"/>
+      <c r="HN10" s="19"/>
+      <c r="HO10" s="19"/>
+      <c r="HP10" s="19"/>
+      <c r="HQ10" s="19"/>
+      <c r="HR10" s="19"/>
+      <c r="HS10" s="19"/>
+      <c r="HT10" s="19"/>
+      <c r="HU10" s="19"/>
+      <c r="HV10" s="19"/>
+      <c r="HW10" s="19"/>
+      <c r="HX10" s="19"/>
+      <c r="HY10" s="19"/>
+      <c r="HZ10" s="19"/>
+      <c r="IA10" s="19"/>
+      <c r="IB10" s="19"/>
+      <c r="IC10" s="19"/>
+      <c r="ID10" s="19"/>
+      <c r="IE10" s="19"/>
+      <c r="IF10" s="19"/>
+      <c r="IG10" s="19"/>
+      <c r="IH10" s="19"/>
+      <c r="II10" s="19"/>
+      <c r="IJ10" s="19"/>
+      <c r="IK10" s="19"/>
+      <c r="IL10" s="19"/>
+      <c r="IM10" s="19"/>
+      <c r="IN10" s="19"/>
+      <c r="IO10" s="19"/>
+      <c r="IP10" s="19"/>
+      <c r="IQ10" s="19"/>
+      <c r="IR10" s="19"/>
+      <c r="IS10" s="19"/>
+      <c r="IT10" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4290,6 +4340,7 @@
     <hyperlink ref="M3" r:id="rId3" location="" tooltip="" display="daniel@gmail.com"/>
     <hyperlink ref="I4" r:id="rId4" location="" tooltip="" display="test@gmail.com"/>
     <hyperlink ref="I5" r:id="rId5" location="" tooltip="" display="test@gmail.com"/>
+    <hyperlink ref="M5" r:id="rId6" location="" tooltip="" display="daniel@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
